--- a/data/Dec 2023 MHDR/perinatal deaths by province_monthly.xlsx
+++ b/data/Dec 2023 MHDR/perinatal deaths by province_monthly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Aug 2023 MHDR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D4749-8F8C-4079-96BF-72E904079BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C721C7B-A85F-4664-8A29-4D71F0797417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="66">
   <si>
     <t>Province</t>
   </si>
@@ -147,33 +147,6 @@
     <t>March 2023</t>
   </si>
   <si>
-    <t>April 2019</t>
-  </si>
-  <si>
-    <t>May 2019</t>
-  </si>
-  <si>
-    <t>June 2019</t>
-  </si>
-  <si>
-    <t>July 2019</t>
-  </si>
-  <si>
-    <t>August 2019</t>
-  </si>
-  <si>
-    <t>September 2019</t>
-  </si>
-  <si>
-    <t>October 2019</t>
-  </si>
-  <si>
-    <t>November 2019</t>
-  </si>
-  <si>
-    <t>December 2019</t>
-  </si>
-  <si>
     <t>April 2020</t>
   </si>
   <si>
@@ -245,6 +218,24 @@
   <si>
     <t>June 2023</t>
   </si>
+  <si>
+    <t>July 2023</t>
+  </si>
+  <si>
+    <t>August 2023</t>
+  </si>
+  <si>
+    <t>September 2023</t>
+  </si>
+  <si>
+    <t>October 2023</t>
+  </si>
+  <si>
+    <t>November 2023</t>
+  </si>
+  <si>
+    <t>December 2023</t>
+  </si>
 </sst>
 </file>
 
@@ -287,18 +278,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -313,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -321,11 +306,14 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,9 +332,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,7 +372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284376F4-204C-4DDE-A490-B666F6F9D3DD}">
-  <dimension ref="A1:C595"/>
+  <dimension ref="A1:C529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A586" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F597" sqref="F597"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -663,11 +651,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6">
-        <v>34</v>
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -675,10 +663,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -686,21 +674,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6">
-        <v>31</v>
+      <c r="B5" s="5">
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -710,8 +698,8 @@
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="6">
-        <v>28</v>
+      <c r="B6" s="5">
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -721,19 +709,19 @@
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="6">
-        <v>28</v>
+      <c r="B7" s="5">
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6">
-        <v>28</v>
+      <c r="B8" s="5">
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -743,8 +731,8 @@
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="6">
-        <v>23</v>
+      <c r="B9" s="5">
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -754,19 +742,19 @@
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="6">
-        <v>31</v>
+      <c r="B10" s="5">
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6">
-        <v>36</v>
+      <c r="B11" s="5">
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -776,8 +764,8 @@
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="6">
-        <v>39</v>
+      <c r="B12" s="5">
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -787,8 +775,8 @@
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="6">
-        <v>21</v>
+      <c r="B13" s="5">
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -796,10 +784,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="5">
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -807,10 +795,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="6">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="5">
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -818,10 +806,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="6">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="5">
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -831,8 +819,8 @@
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="6">
-        <v>65</v>
+      <c r="B17" s="5">
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -842,8 +830,8 @@
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="6">
-        <v>81</v>
+      <c r="B18" s="5">
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -853,8 +841,8 @@
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="6">
-        <v>46</v>
+      <c r="B19" s="5">
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -864,8 +852,8 @@
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="6">
-        <v>66</v>
+      <c r="B20" s="5">
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -875,8 +863,8 @@
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="6">
-        <v>67</v>
+      <c r="B21" s="5">
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -886,8 +874,8 @@
       <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="6">
-        <v>68</v>
+      <c r="B22" s="5">
+        <v>66</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -897,8 +885,8 @@
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="6">
-        <v>52</v>
+      <c r="B23" s="5">
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -908,8 +896,8 @@
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="6">
-        <v>56</v>
+      <c r="B24" s="5">
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -919,8 +907,8 @@
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="6">
-        <v>66</v>
+      <c r="B25" s="5">
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -928,10 +916,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="6">
-        <v>58</v>
+        <v>14</v>
+      </c>
+      <c r="B26" s="5">
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -939,10 +927,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="6">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="B27" s="5">
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -950,10 +938,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="6">
-        <v>80</v>
+        <v>16</v>
+      </c>
+      <c r="B28" s="5">
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -961,10 +949,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="6">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="B29" s="5">
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -972,10 +960,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="6">
-        <v>59</v>
+        <v>18</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -983,10 +971,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="6">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="B31" s="5">
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -994,10 +982,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="6">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="B32" s="5">
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1005,10 +993,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="6">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="B33" s="5">
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1016,10 +1004,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="6">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B34" s="5">
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1027,10 +1015,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="6">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="B35" s="5">
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1038,10 +1026,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="6">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="B36" s="5">
+        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1049,21 +1037,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="6">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B37" s="5">
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="6">
-        <v>51</v>
+      <c r="A38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="5">
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -1071,10 +1059,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="6">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="B39" s="5">
+        <v>65</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -1082,109 +1070,109 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="6">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="B40" s="5">
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="6">
-        <v>50</v>
+      <c r="A41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>47</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="6">
-        <v>45</v>
+      <c r="A42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="6">
-        <v>49</v>
+      <c r="A43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43">
+        <v>53</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="6">
-        <v>65</v>
+      <c r="A44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="6">
-        <v>56</v>
+      <c r="A45" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45">
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="6">
-        <v>49</v>
+      <c r="A46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46">
+        <v>42</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="6">
-        <v>38</v>
+      <c r="A47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47">
+        <v>64</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="6">
-        <v>51</v>
+      <c r="B48">
+        <v>41</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="6">
-        <v>65</v>
+      <c r="B49">
+        <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1192,76 +1180,76 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="6">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="B50" s="5">
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="6">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="B51" s="5">
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="6">
+        <v>33</v>
+      </c>
+      <c r="B52" s="5">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="5">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="5">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A55" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A53" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53">
-        <v>47</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A54" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54">
-        <v>60</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A55" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
+      <c r="B55" s="5">
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="6">
+      <c r="A56" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="B56" s="5">
+        <v>40</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1269,9 +1257,9 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="6">
+        <v>40</v>
+      </c>
+      <c r="B57" s="5">
         <v>27</v>
       </c>
       <c r="C57" t="s">
@@ -1280,21 +1268,21 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="B58" s="5">
+        <v>34</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A59" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="6">
-        <v>26</v>
+      <c r="A59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="5">
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -1302,10 +1290,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="6">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="B60" s="5">
+        <v>21</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1313,21 +1301,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="5">
         <v>38</v>
-      </c>
-      <c r="B61" s="6">
-        <v>29</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A62" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="6">
-        <v>29</v>
+      <c r="A62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="5">
+        <v>27</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -1335,10 +1323,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" s="6">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B63" s="5">
+        <v>28</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -1346,21 +1334,21 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="6">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B64" s="5">
+        <v>44</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="6">
-        <v>32</v>
+      <c r="A65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="5">
+        <v>20</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -1368,10 +1356,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="6">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="B66" s="5">
+        <v>20</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1379,21 +1367,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="6">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="B67" s="5">
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="6">
-        <v>75</v>
+      <c r="A68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="5">
+        <v>28</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -1401,10 +1389,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="6">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="B69" s="5">
+        <v>26</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -1412,10 +1400,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="6">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B70" s="5">
+        <v>38</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -1423,10 +1411,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" s="6">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="B71" s="5">
+        <v>35</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -1434,10 +1422,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="6">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="B72" s="5">
+        <v>33</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -1445,10 +1433,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="6">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="B73" s="5">
+        <v>42</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1456,10 +1444,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="6">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="B74" s="5">
+        <v>26</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -1467,10 +1455,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="6">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B75" s="5">
+        <v>35</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -1478,10 +1466,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="6">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="B76" s="5">
+        <v>42</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -1489,10 +1477,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="6">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B77" s="5">
+        <v>28</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1500,10 +1488,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="6">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B78" s="5">
+        <v>27</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -1511,10 +1499,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="6">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="B79" s="5">
+        <v>48</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -1522,10 +1510,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="6">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="B80" s="5">
+        <v>42</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -1533,10 +1521,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81" s="6">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="B81" s="5">
+        <v>42</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -1544,10 +1532,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="6">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="B82" s="5">
+        <v>28</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -1555,10 +1543,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="6">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B83" s="5">
+        <v>22</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -1568,8 +1556,8 @@
       <c r="A84" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="6">
-        <v>20</v>
+      <c r="B84" s="5">
+        <v>27</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1579,8 +1567,8 @@
       <c r="A85" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="6">
-        <v>23</v>
+      <c r="B85" s="5">
+        <v>41</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -1588,10 +1576,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" s="6">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B86" s="5">
+        <v>15</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -1599,10 +1587,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="6">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B87" s="5">
+        <v>34</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -1610,20 +1598,20 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B88" s="6">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B88" s="5">
+        <v>22</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A89" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="6">
+      <c r="A89" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89">
         <v>35</v>
       </c>
       <c r="C89" t="s">
@@ -1631,231 +1619,231 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A90" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B90" s="6">
-        <v>33</v>
+      <c r="A90" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90">
+        <v>30</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A91" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="6">
-        <v>42</v>
+      <c r="A91" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="6">
-        <v>26</v>
+      <c r="A92" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92">
+        <v>34</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A93" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="6">
-        <v>35</v>
+      <c r="A93" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B94" s="6">
-        <v>42</v>
+      <c r="A94" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94">
+        <v>41</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" s="6">
-        <v>28</v>
+      <c r="A95" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95">
+        <v>30</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B96" s="6">
-        <v>27</v>
+      <c r="A96" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96">
+        <v>33</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A97" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B97" s="6">
-        <v>48</v>
+      <c r="A97" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97">
+        <v>17</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A98" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="6">
-        <v>42</v>
+      <c r="A98" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="5">
+        <v>85</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="6">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="B99" s="5">
+        <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B100" s="6">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B100" s="5">
+        <v>64</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="6">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="B101" s="5">
+        <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B102" s="6">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="B102" s="5">
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B103" s="6">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B103" s="5">
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B104" s="6">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="B104" s="5">
+        <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B105" s="6">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="B105" s="5">
+        <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" s="6">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="B106" s="5">
+        <v>70</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A107" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B107">
-        <v>35</v>
+      <c r="A107" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" s="5">
+        <v>86</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A108" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B108">
-        <v>30</v>
+      <c r="A108" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="5">
+        <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A109" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B109">
-        <v>12</v>
+      <c r="A109" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="5">
+        <v>48</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A110" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" s="6">
-        <v>21</v>
+      <c r="A110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" s="5">
+        <v>63</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -1863,10 +1851,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B111" s="6">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="B111" s="5">
+        <v>87</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
@@ -1874,21 +1862,21 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112" s="6">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="B112" s="5">
+        <v>98</v>
       </c>
       <c r="C112" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A113" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B113" s="6">
-        <v>46</v>
+      <c r="A113" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" s="5">
+        <v>65</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -1896,10 +1884,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="6">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="B114" s="5">
+        <v>57</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -1907,21 +1895,21 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B115" s="6">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="B115" s="5">
+        <v>63</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A116" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B116" s="6">
-        <v>52</v>
+      <c r="A116" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="5">
+        <v>65</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
@@ -1929,10 +1917,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B117" s="6">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="B117" s="5">
+        <v>51</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
@@ -1940,21 +1928,21 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B118" s="6">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B118" s="5">
+        <v>67</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A119" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B119" s="6">
+      <c r="A119" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="B119" s="5">
+        <v>53</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
@@ -1962,10 +1950,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" s="6">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="B120" s="5">
+        <v>61</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
@@ -1973,21 +1961,21 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="6">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="B121" s="5">
+        <v>57</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A122" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B122" s="6">
-        <v>85</v>
+      <c r="A122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="5">
+        <v>31</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
@@ -1995,10 +1983,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B123" s="6">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="B123" s="5">
+        <v>49</v>
       </c>
       <c r="C123" t="s">
         <v>3</v>
@@ -2006,10 +1994,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B124" s="6">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="B124" s="5">
+        <v>57</v>
       </c>
       <c r="C124" t="s">
         <v>3</v>
@@ -2017,10 +2005,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B125" s="6">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="B125" s="5">
+        <v>36</v>
       </c>
       <c r="C125" t="s">
         <v>3</v>
@@ -2028,10 +2016,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B126" s="6">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="B126" s="5">
+        <v>22</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
@@ -2039,10 +2027,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B127" s="6">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="B127" s="5">
+        <v>60</v>
       </c>
       <c r="C127" t="s">
         <v>3</v>
@@ -2050,10 +2038,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B128" s="6">
-        <v>95</v>
+        <v>20</v>
+      </c>
+      <c r="B128" s="5">
+        <v>51</v>
       </c>
       <c r="C128" t="s">
         <v>3</v>
@@ -2061,10 +2049,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B129" s="6">
-        <v>117</v>
+        <v>21</v>
+      </c>
+      <c r="B129" s="5">
+        <v>74</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
@@ -2072,10 +2060,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B130" s="6">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="B130" s="5">
+        <v>72</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
@@ -2083,10 +2071,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="5">
         <v>51</v>
-      </c>
-      <c r="B131" s="6">
-        <v>86</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
@@ -2094,10 +2082,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B132" s="6">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="B132" s="5">
+        <v>75</v>
       </c>
       <c r="C132" t="s">
         <v>3</v>
@@ -2105,10 +2093,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B133" s="6">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="B133" s="5">
+        <v>84</v>
       </c>
       <c r="C133" t="s">
         <v>3</v>
@@ -2116,10 +2104,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B134" s="6">
-        <v>63</v>
+        <v>27</v>
+      </c>
+      <c r="B134" s="5">
+        <v>79</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -2127,10 +2115,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B135" s="6">
-        <v>87</v>
+        <v>31</v>
+      </c>
+      <c r="B135" s="5">
+        <v>107</v>
       </c>
       <c r="C135" t="s">
         <v>3</v>
@@ -2138,318 +2126,318 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B136" s="6">
-        <v>98</v>
+        <v>35</v>
+      </c>
+      <c r="B136" s="5">
+        <v>88</v>
       </c>
       <c r="C136" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A137" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B137" s="6">
-        <v>65</v>
+      <c r="A137" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137">
+        <v>76</v>
       </c>
       <c r="C137" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A138" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B138" s="6">
-        <v>57</v>
+      <c r="A138" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138">
+        <v>97</v>
       </c>
       <c r="C138" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A139" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B139" s="6">
-        <v>63</v>
+      <c r="A139" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139">
+        <v>64</v>
       </c>
       <c r="C139" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A140" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B140" s="6">
-        <v>65</v>
+      <c r="A140" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140">
+        <v>92</v>
       </c>
       <c r="C140" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A141" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B141" s="6">
-        <v>51</v>
+      <c r="A141" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141">
+        <v>100</v>
       </c>
       <c r="C141" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A142" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B142" s="6">
-        <v>67</v>
+      <c r="A142" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142">
+        <v>104</v>
       </c>
       <c r="C142" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A143" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B143" s="6">
-        <v>53</v>
+      <c r="A143" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143">
+        <v>86</v>
       </c>
       <c r="C143" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A144" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B144" s="6">
-        <v>61</v>
+      <c r="A144" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B144">
+        <v>107</v>
       </c>
       <c r="C144" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A145" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B145" s="6">
-        <v>57</v>
+      <c r="A145" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145">
+        <v>92</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A146" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B146" s="6">
-        <v>31</v>
+      <c r="A146" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146">
+        <v>114</v>
       </c>
       <c r="C146" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A147" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="6">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="B147">
+        <v>83</v>
       </c>
       <c r="C147" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A148" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148" s="6">
-        <v>57</v>
+        <v>33</v>
+      </c>
+      <c r="B148">
+        <v>83</v>
       </c>
       <c r="C148" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A149" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149" s="6">
         <v>36</v>
       </c>
+      <c r="B149">
+        <v>118</v>
+      </c>
       <c r="C149" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A150" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B150" s="6">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="B150">
+        <v>94</v>
       </c>
       <c r="C150" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A151" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B151" s="6">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="B151">
+        <v>91</v>
       </c>
       <c r="C151" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A152" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B152" s="6">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="B152">
+        <v>127</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A153" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B153" s="6">
-        <v>74</v>
+        <v>40</v>
+      </c>
+      <c r="B153">
+        <v>84</v>
       </c>
       <c r="C153" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A154" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B154" s="6">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="B154">
+        <v>109</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A155" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B155" s="6">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="B155">
+        <v>77</v>
       </c>
       <c r="C155" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A156" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B156" s="6">
-        <v>75</v>
+        <v>43</v>
+      </c>
+      <c r="B156">
+        <v>83</v>
       </c>
       <c r="C156" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A157" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B157" s="6">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="B157">
+        <v>132</v>
       </c>
       <c r="C157" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A158" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B158" s="6">
-        <v>79</v>
+        <v>26</v>
+      </c>
+      <c r="B158">
+        <v>97</v>
       </c>
       <c r="C158" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A159" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B159" s="6">
-        <v>107</v>
+        <v>30</v>
+      </c>
+      <c r="B159">
+        <v>106</v>
       </c>
       <c r="C159" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A160" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B160" s="6">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="B160">
+        <v>83</v>
       </c>
       <c r="C160" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A161" s="7" t="s">
-        <v>66</v>
+      <c r="A161" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B161">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C161" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A162" s="7" t="s">
-        <v>67</v>
+      <c r="A162" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B162">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C162" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A163" s="7" t="s">
-        <v>68</v>
+      <c r="A163" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B163">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C163" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A164" s="5" t="s">
-        <v>24</v>
+      <c r="A164" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B164">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
@@ -2457,10 +2445,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A165" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B165">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C165" t="s">
         <v>4</v>
@@ -2468,21 +2456,21 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A166" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B166">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A167" s="5" t="s">
-        <v>36</v>
+      <c r="A167" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B167">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -2490,10 +2478,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A168" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B168">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -2501,21 +2489,21 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A169" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B169">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A170" s="5" t="s">
-        <v>39</v>
+      <c r="A170" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B170">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -2523,10 +2511,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A171" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B171">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
@@ -2534,21 +2522,21 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A172" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B172">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A173" s="2" t="s">
-        <v>42</v>
+      <c r="A173" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B173">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
@@ -2556,10 +2544,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A174" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B174">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C174" t="s">
         <v>4</v>
@@ -2567,21 +2555,21 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A175" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B175">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C175" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A176" s="2" t="s">
-        <v>25</v>
+      <c r="A176" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B176">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C176" t="s">
         <v>4</v>
@@ -2589,10 +2577,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A177" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B177">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C177" t="s">
         <v>4</v>
@@ -2600,10 +2588,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A178" s="3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B178">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C178" t="s">
         <v>4</v>
@@ -2611,10 +2599,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A179" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B179">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -2622,10 +2610,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A180" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B180">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -2633,10 +2621,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A181" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B181">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C181" t="s">
         <v>4</v>
@@ -2644,10 +2632,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A182" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B182">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -2655,10 +2643,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A183" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B183">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C183" t="s">
         <v>4</v>
@@ -2666,40 +2654,40 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A184" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B184">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A185" s="3" t="s">
-        <v>51</v>
+      <c r="A185" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B185">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C185" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A186" s="3" t="s">
-        <v>52</v>
+      <c r="A186" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B186">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A187" s="3" t="s">
-        <v>53</v>
+      <c r="A187" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B187">
         <v>132</v>
@@ -2709,341 +2697,341 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A188" s="3" t="s">
-        <v>26</v>
+      <c r="A188" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B188">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C188" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A189" s="3" t="s">
-        <v>30</v>
+      <c r="A189" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B189">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C189" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A190" s="3" t="s">
-        <v>34</v>
+      <c r="A190" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B190">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A191" s="3" t="s">
-        <v>54</v>
+      <c r="A191" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B191">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C191" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A192" s="3" t="s">
-        <v>55</v>
+      <c r="A192" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B192">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C192" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A193" s="3" t="s">
-        <v>56</v>
+      <c r="A193" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B193">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C193" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A194" s="3" t="s">
-        <v>57</v>
+      <c r="A194" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B194">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A195" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B195">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C195" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A196" s="3" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B196">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C196" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A197" s="3" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B197">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C197" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A198" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B198">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C198" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A199" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B199">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C199" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A200" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B200">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="C200" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A201" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B201">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="C201" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A202" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B202">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C202" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A203" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B203">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C203" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A204" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B204">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C204" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A205" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B205">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C205" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A206" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B206">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C206" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A207" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B207">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C207" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A208" s="3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B208">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="C208" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A209" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B209">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C209" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A210" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B210">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="C210" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A211" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B211">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="C211" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A212" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B212">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C212" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A213" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B213">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C213" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B214">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C214" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A215" s="7" t="s">
-        <v>66</v>
+      <c r="A215" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B215">
         <v>113</v>
       </c>
       <c r="C215" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A216" s="7" t="s">
-        <v>67</v>
+      <c r="A216" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B216">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C216" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A217" s="7" t="s">
-        <v>68</v>
+      <c r="A217" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B217">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C217" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A218" s="5" t="s">
-        <v>24</v>
+      <c r="A218" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B218">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3051,10 +3039,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B219">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3062,21 +3050,21 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B220">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A221" s="5" t="s">
-        <v>36</v>
+      <c r="A221" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B221">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3084,10 +3072,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B222">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3095,21 +3083,21 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B223">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A224" s="5" t="s">
-        <v>39</v>
+      <c r="A224" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B224">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3117,10 +3105,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B225">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3128,21 +3116,21 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B226">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A227" s="2" t="s">
-        <v>42</v>
+      <c r="A227" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B227">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3150,10 +3138,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B228">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3161,21 +3149,21 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B229">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A230" s="2" t="s">
-        <v>25</v>
+      <c r="A230" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B230">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3183,10 +3171,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B231">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -3194,450 +3182,450 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B232">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A233" s="3" t="s">
-        <v>45</v>
+      <c r="A233" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B233">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A234" s="3" t="s">
-        <v>46</v>
+      <c r="A234" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B234">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A235" s="3" t="s">
-        <v>47</v>
+      <c r="A235" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B235">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A236" s="3" t="s">
-        <v>48</v>
+      <c r="A236" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B236">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A237" s="3" t="s">
-        <v>49</v>
+      <c r="A237" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B237">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A238" s="3" t="s">
-        <v>50</v>
+      <c r="A238" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B238">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A239" s="3" t="s">
-        <v>51</v>
+      <c r="A239" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B239">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A240" s="3" t="s">
-        <v>52</v>
+      <c r="A240" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B240">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A241" s="3" t="s">
-        <v>53</v>
+      <c r="A241" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B241">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A242" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B242">
-        <v>114</v>
+      <c r="A242" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B242" s="5">
+        <v>87</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A243" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B243">
-        <v>132</v>
+        <v>29</v>
+      </c>
+      <c r="B243" s="5">
+        <v>76</v>
       </c>
       <c r="C243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A244" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B244">
-        <v>182</v>
+        <v>33</v>
+      </c>
+      <c r="B244" s="5">
+        <v>80</v>
       </c>
       <c r="C244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A245" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B245">
-        <v>142</v>
+        <v>36</v>
+      </c>
+      <c r="B245" s="5">
+        <v>123</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A246" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B246">
-        <v>165</v>
+        <v>37</v>
+      </c>
+      <c r="B246" s="5">
+        <v>103</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A247" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B247">
-        <v>173</v>
+        <v>38</v>
+      </c>
+      <c r="B247" s="5">
+        <v>91</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A248" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B248">
-        <v>98</v>
+        <v>39</v>
+      </c>
+      <c r="B248" s="5">
+        <v>114</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A249" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B249">
-        <v>105</v>
+        <v>40</v>
+      </c>
+      <c r="B249" s="5">
+        <v>83</v>
       </c>
       <c r="C249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A250" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B250">
-        <v>131</v>
+        <v>41</v>
+      </c>
+      <c r="B250" s="5">
+        <v>93</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A251" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B251">
-        <v>113</v>
+        <v>42</v>
+      </c>
+      <c r="B251" s="5">
+        <v>71</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A252" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B252">
-        <v>130</v>
+        <v>43</v>
+      </c>
+      <c r="B252" s="5">
+        <v>60</v>
       </c>
       <c r="C252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A253" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B253">
-        <v>141</v>
+        <v>44</v>
+      </c>
+      <c r="B253" s="5">
+        <v>68</v>
       </c>
       <c r="C253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A254" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B254">
-        <v>83</v>
+        <v>26</v>
+      </c>
+      <c r="B254" s="5">
+        <v>61</v>
       </c>
       <c r="C254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A255" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B255">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="B255" s="5">
+        <v>68</v>
       </c>
       <c r="C255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A256" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B256">
-        <v>141</v>
+        <v>34</v>
+      </c>
+      <c r="B256" s="5">
+        <v>82</v>
       </c>
       <c r="C256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A257" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B257">
-        <v>100</v>
+        <v>45</v>
+      </c>
+      <c r="B257" s="5">
+        <v>83</v>
       </c>
       <c r="C257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A258" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B258">
-        <v>104</v>
+        <v>46</v>
+      </c>
+      <c r="B258" s="5">
+        <v>37</v>
       </c>
       <c r="C258" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A259" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B259">
-        <v>124</v>
+        <v>47</v>
+      </c>
+      <c r="B259" s="5">
+        <v>64</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A260" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B260">
-        <v>83</v>
+        <v>48</v>
+      </c>
+      <c r="B260" s="5">
+        <v>60</v>
       </c>
       <c r="C260" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A261" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B261">
-        <v>104</v>
+        <v>49</v>
+      </c>
+      <c r="B261" s="5">
+        <v>59</v>
       </c>
       <c r="C261" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A262" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B262">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="B262" s="5">
+        <v>98</v>
       </c>
       <c r="C262" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A263" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B263">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="B263" s="5">
+        <v>66</v>
       </c>
       <c r="C263" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A264" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B264">
-        <v>130</v>
+        <v>52</v>
+      </c>
+      <c r="B264" s="5">
+        <v>83</v>
       </c>
       <c r="C264" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A265" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B265">
-        <v>117</v>
+        <v>53</v>
+      </c>
+      <c r="B265" s="5">
+        <v>69</v>
       </c>
       <c r="C265" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A266" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B266">
-        <v>109</v>
+        <v>14</v>
+      </c>
+      <c r="B266" s="5">
+        <v>72</v>
       </c>
       <c r="C266" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A267" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B267">
-        <v>137</v>
+        <v>15</v>
+      </c>
+      <c r="B267" s="5">
+        <v>59</v>
       </c>
       <c r="C267" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A268" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B268">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="B268" s="5">
+        <v>63</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A269" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B269">
-        <v>79</v>
+      <c r="A269" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B269" s="5">
+        <v>58</v>
       </c>
       <c r="C269" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A270" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B270">
-        <v>89</v>
+      <c r="A270" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B270" s="5">
+        <v>59</v>
       </c>
       <c r="C270" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A271" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B271">
-        <v>70</v>
+      <c r="A271" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B271" s="5">
+        <v>88</v>
       </c>
       <c r="C271" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A272" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B272" s="6">
-        <v>25</v>
+      <c r="A272" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B272" s="5">
+        <v>96</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
@@ -3645,10 +3633,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A273" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B273" s="6">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B273" s="5">
+        <v>65</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
@@ -3656,21 +3644,21 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A274" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B274" s="6">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="B274" s="5">
+        <v>59</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A275" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B275" s="6">
-        <v>28</v>
+      <c r="A275" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" s="5">
+        <v>40</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
@@ -3678,10 +3666,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A276" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B276" s="6">
-        <v>25</v>
+        <v>55</v>
+      </c>
+      <c r="B276" s="5">
+        <v>69</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
@@ -3689,21 +3677,21 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A277" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B277" s="6">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="B277" s="5">
+        <v>89</v>
       </c>
       <c r="C277" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A278" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B278" s="6">
-        <v>22</v>
+      <c r="A278" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B278" s="5">
+        <v>81</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
@@ -3711,10 +3699,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A279" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B279" s="6">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B279" s="5">
+        <v>122</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
@@ -3722,516 +3710,516 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A280" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B280" s="6">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="B280" s="5">
+        <v>89</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A281" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B281" s="6">
-        <v>42</v>
+      <c r="A281" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B281">
+        <v>87</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A282" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B282" s="6">
-        <v>30</v>
+      <c r="A282" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B282">
+        <v>68</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A283" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B283" s="6">
-        <v>27</v>
+      <c r="A283" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B283">
+        <v>64</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A284" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B284" s="6">
-        <v>87</v>
+      <c r="A284" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B284">
+        <v>90</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A285" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B285" s="6">
-        <v>76</v>
+      <c r="A285" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B285">
+        <v>74</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A286" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B286" s="6">
-        <v>80</v>
+      <c r="A286" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B286">
+        <v>73</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A287" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B287" s="6">
-        <v>123</v>
+      <c r="A287" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B287">
+        <v>72</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A288" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B288" s="6">
-        <v>103</v>
+      <c r="A288" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B288">
+        <v>63</v>
       </c>
       <c r="C288" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A289" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B289" s="6">
-        <v>91</v>
+      <c r="A289" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B289">
+        <v>73</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A290" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B290" s="6">
-        <v>114</v>
+      <c r="A290" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B290" s="5">
+        <v>70</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A291" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B291" s="6">
-        <v>83</v>
+        <v>29</v>
+      </c>
+      <c r="B291" s="5">
+        <v>77</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A292" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B292" s="6">
-        <v>93</v>
+        <v>33</v>
+      </c>
+      <c r="B292" s="5">
+        <v>70</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A293" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B293" s="6">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="B293" s="5">
+        <v>102</v>
       </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A294" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B294" s="6">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="B294" s="5">
+        <v>55</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A295" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B295" s="6">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="B295" s="5">
+        <v>57</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A296" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B296" s="6">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="B296" s="5">
+        <v>50</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A297" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B297" s="6">
+        <v>40</v>
+      </c>
+      <c r="B297" s="5">
         <v>68</v>
       </c>
       <c r="C297" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A298" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B298" s="6">
-        <v>82</v>
+        <v>41</v>
+      </c>
+      <c r="B298" s="5">
+        <v>65</v>
       </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A299" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B299" s="6">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="B299" s="5">
+        <v>35</v>
       </c>
       <c r="C299" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A300" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B300" s="6">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="B300" s="5">
+        <v>58</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A301" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B301" s="6">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="B301" s="5">
+        <v>53</v>
       </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A302" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B302" s="6">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="B302" s="5">
+        <v>75</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A303" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B303" s="6">
-        <v>59</v>
+        <v>30</v>
+      </c>
+      <c r="B303" s="5">
+        <v>48</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A304" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B304" s="6">
-        <v>98</v>
+        <v>34</v>
+      </c>
+      <c r="B304" s="5">
+        <v>68</v>
       </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A305" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B305" s="6">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="B305" s="5">
+        <v>50</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A306" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B306" s="6">
-        <v>83</v>
+        <v>46</v>
+      </c>
+      <c r="B306" s="5">
+        <v>25</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A307" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B307" s="6">
-        <v>69</v>
+        <v>47</v>
+      </c>
+      <c r="B307" s="5">
+        <v>43</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A308" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B308" s="6">
-        <v>72</v>
+        <v>48</v>
+      </c>
+      <c r="B308" s="5">
+        <v>35</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A309" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B309" s="6">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="B309" s="5">
+        <v>37</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A310" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B310" s="6">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="B310" s="5">
+        <v>34</v>
       </c>
       <c r="C310" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A311" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B311" s="6">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="B311" s="5">
+        <v>36</v>
       </c>
       <c r="C311" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A312" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B312" s="6">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="B312" s="5">
+        <v>30</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A313" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B313" s="6">
-        <v>88</v>
+        <v>53</v>
+      </c>
+      <c r="B313" s="5">
+        <v>53</v>
       </c>
       <c r="C313" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A314" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B314" s="6">
-        <v>96</v>
+        <v>14</v>
+      </c>
+      <c r="B314" s="5">
+        <v>49</v>
       </c>
       <c r="C314" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A315" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="5">
         <v>21</v>
       </c>
-      <c r="B315" s="6">
-        <v>65</v>
-      </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A316" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B316" s="6">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="B316" s="5">
+        <v>52</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A317" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B317" s="6">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="B317" s="5">
+        <v>17</v>
       </c>
       <c r="C317" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A318" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B318" s="6">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="B318" s="5">
+        <v>12</v>
       </c>
       <c r="C318" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A319" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B319" s="6">
-        <v>89</v>
+        <v>19</v>
+      </c>
+      <c r="B319" s="5">
+        <v>41</v>
       </c>
       <c r="C319" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A320" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B320" s="6">
-        <v>81</v>
+        <v>20</v>
+      </c>
+      <c r="B320" s="5">
+        <v>47</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A321" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B321" s="6">
-        <v>122</v>
+        <v>21</v>
+      </c>
+      <c r="B321" s="5">
+        <v>34</v>
       </c>
       <c r="C321" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A322" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B322" s="6">
-        <v>89</v>
+        <v>54</v>
+      </c>
+      <c r="B322" s="5">
+        <v>38</v>
       </c>
       <c r="C322" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A323" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B323">
-        <v>87</v>
+      <c r="A323" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B323" s="5">
+        <v>31</v>
       </c>
       <c r="C323" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A324" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B324">
-        <v>68</v>
+      <c r="A324" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B324" s="5">
+        <v>31</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A325" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B325">
-        <v>64</v>
+      <c r="A325" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B325" s="5">
+        <v>47</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A326" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B326" s="6">
-        <v>42</v>
+      <c r="A326" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B326" s="5">
+        <v>37</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
@@ -4239,10 +4227,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A327" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B327" s="6">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B327" s="5">
+        <v>56</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
@@ -4250,109 +4238,109 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A328" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B328" s="6">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="B328" s="5">
+        <v>41</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A329" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B329" s="6">
-        <v>33</v>
+      <c r="A329" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B329">
+        <v>34</v>
       </c>
       <c r="C329" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A330" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B330" s="6">
-        <v>24</v>
+      <c r="A330" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B330">
+        <v>36</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A331" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B331" s="6">
-        <v>17</v>
+      <c r="A331" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B331">
+        <v>28</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A332" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B332" s="6">
-        <v>24</v>
+      <c r="A332" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B332">
+        <v>52</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A333" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B333" s="6">
-        <v>22</v>
+      <c r="A333" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B333">
+        <v>55</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A334" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B334" s="6">
-        <v>25</v>
+      <c r="A334" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B334">
+        <v>58</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A335" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B335" s="6">
-        <v>28</v>
+      <c r="A335" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B335">
+        <v>49</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A336" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B336" s="6">
-        <v>22</v>
+      <c r="A336" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B336">
+        <v>57</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A337" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B337" s="6">
-        <v>30</v>
+      <c r="A337" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B337">
+        <v>46</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
@@ -4362,2837 +4350,2111 @@
       <c r="A338" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B338" s="6">
-        <v>70</v>
+      <c r="B338" s="5">
+        <v>40</v>
       </c>
       <c r="C338" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A339" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B339" s="6">
-        <v>77</v>
+      <c r="B339" s="5">
+        <v>34</v>
       </c>
       <c r="C339" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A340" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B340" s="6">
-        <v>70</v>
+      <c r="B340" s="5">
+        <v>40</v>
       </c>
       <c r="C340" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A341" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B341" s="6">
-        <v>102</v>
+        <v>36</v>
+      </c>
+      <c r="B341" s="5">
+        <v>41</v>
       </c>
       <c r="C341" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A342" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B342" s="6">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="B342" s="5">
+        <v>25</v>
       </c>
       <c r="C342" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A343" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B343" s="6">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="B343" s="5">
+        <v>23</v>
       </c>
       <c r="C343" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A344" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B344" s="6">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="B344" s="5">
+        <v>30</v>
       </c>
       <c r="C344" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A345" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B345" s="6">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="B345" s="5">
+        <v>34</v>
       </c>
       <c r="C345" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A346" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B346" s="5">
         <v>50</v>
       </c>
-      <c r="B346" s="6">
-        <v>65</v>
-      </c>
       <c r="C346" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A347" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B347" s="6">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="B347" s="5">
+        <v>38</v>
       </c>
       <c r="C347" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A348" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B348" s="6">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="B348" s="5">
+        <v>28</v>
       </c>
       <c r="C348" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A349" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B349" s="6">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="B349" s="5">
+        <v>37</v>
       </c>
       <c r="C349" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A350" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B350" s="6">
-        <v>75</v>
+      <c r="B350" s="5">
+        <v>41</v>
       </c>
       <c r="C350" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A351" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B351" s="6">
-        <v>48</v>
+      <c r="B351" s="5">
+        <v>39</v>
       </c>
       <c r="C351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A352" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B352" s="6">
-        <v>68</v>
+      <c r="B352" s="5">
+        <v>33</v>
       </c>
       <c r="C352" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A353" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B353" s="6">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="B353" s="5">
+        <v>24</v>
       </c>
       <c r="C353" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A354" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B354" s="6">
+        <v>46</v>
+      </c>
+      <c r="B354" s="5">
         <v>25</v>
       </c>
       <c r="C354" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A355" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B355" s="6">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B355" s="5">
+        <v>29</v>
       </c>
       <c r="C355" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A356" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B356" s="6">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="B356" s="5">
+        <v>28</v>
       </c>
       <c r="C356" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A357" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B357" s="6">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="B357" s="5">
+        <v>41</v>
       </c>
       <c r="C357" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A358" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B358" s="6">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="B358" s="5">
+        <v>36</v>
       </c>
       <c r="C358" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A359" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B359" s="6">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="B359" s="5">
+        <v>32</v>
       </c>
       <c r="C359" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A360" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B360" s="6">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="B360" s="5">
+        <v>33</v>
       </c>
       <c r="C360" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A361" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B361" s="6">
         <v>53</v>
       </c>
+      <c r="B361" s="5">
+        <v>30</v>
+      </c>
       <c r="C361" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A362" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B362" s="6">
-        <v>49</v>
+      <c r="B362" s="5">
+        <v>24</v>
       </c>
       <c r="C362" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A363" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B363" s="6">
-        <v>21</v>
+      <c r="B363" s="5">
+        <v>31</v>
       </c>
       <c r="C363" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A364" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B364" s="6">
-        <v>52</v>
+      <c r="B364" s="5">
+        <v>25</v>
       </c>
       <c r="C364" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A365" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B365" s="6">
-        <v>17</v>
+      <c r="B365" s="5">
+        <v>16</v>
       </c>
       <c r="C365" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A366" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B366" s="6">
-        <v>12</v>
+      <c r="B366" s="5">
+        <v>28</v>
       </c>
       <c r="C366" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A367" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B367" s="6">
-        <v>41</v>
+      <c r="B367" s="5">
+        <v>29</v>
       </c>
       <c r="C367" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A368" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B368" s="6">
-        <v>47</v>
+      <c r="B368" s="5">
+        <v>32</v>
       </c>
       <c r="C368" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A369" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B369" s="6">
-        <v>34</v>
+      <c r="B369" s="5">
+        <v>39</v>
       </c>
       <c r="C369" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A370" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B370" s="6">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="B370" s="5">
+        <v>26</v>
       </c>
       <c r="C370" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A371" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B371" s="6">
-        <v>31</v>
+      <c r="B371" s="5">
+        <v>13</v>
       </c>
       <c r="C371" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A372" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B372" s="6">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="B372" s="5">
+        <v>11</v>
       </c>
       <c r="C372" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A373" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B373" s="6">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="B373" s="5">
+        <v>28</v>
       </c>
       <c r="C373" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A374" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B374" s="6">
-        <v>37</v>
+      <c r="B374" s="5">
+        <v>30</v>
       </c>
       <c r="C374" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A375" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B375" s="6">
-        <v>56</v>
+      <c r="B375" s="5">
+        <v>53</v>
       </c>
       <c r="C375" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A376" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B376" s="6">
+      <c r="B376" s="5">
+        <v>28</v>
+      </c>
+      <c r="C376" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A377" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B377">
+        <v>18</v>
+      </c>
+      <c r="C377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A378" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B378">
+        <v>20</v>
+      </c>
+      <c r="C378" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A379" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B379">
+        <v>22</v>
+      </c>
+      <c r="C379" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A380" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B380">
         <v>41</v>
-      </c>
-      <c r="C376" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A377" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B377">
-        <v>34</v>
-      </c>
-      <c r="C377" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A378" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B378">
-        <v>36</v>
-      </c>
-      <c r="C378" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A379" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B379">
-        <v>28</v>
-      </c>
-      <c r="C379" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A380" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B380" s="6">
-        <v>33</v>
       </c>
       <c r="C380" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A381" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B381" s="6">
-        <v>19</v>
+      <c r="A381" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B381">
+        <v>34</v>
       </c>
       <c r="C381" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A382" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B382" s="6">
-        <v>22</v>
+      <c r="A382" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B382">
+        <v>21</v>
       </c>
       <c r="C382" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A383" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B383" s="6">
-        <v>8</v>
+      <c r="A383" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B383">
+        <v>38</v>
       </c>
       <c r="C383" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A384" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B384" s="6">
-        <v>16</v>
+      <c r="A384" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B384">
+        <v>15</v>
       </c>
       <c r="C384" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A385" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B385" s="6">
-        <v>14</v>
+      <c r="A385" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B385">
+        <v>23</v>
       </c>
       <c r="C385" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A386" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B386" s="6">
-        <v>30</v>
+      <c r="A386" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B386" s="5">
+        <v>89</v>
       </c>
       <c r="C386" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A387" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B387" s="6">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B387" s="5">
+        <v>58</v>
       </c>
       <c r="C387" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A388" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B388" s="6">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="B388" s="5">
+        <v>68</v>
       </c>
       <c r="C388" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A389" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B389" s="6">
-        <v>19</v>
+      <c r="A389" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B389" s="5">
+        <v>82</v>
       </c>
       <c r="C389" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A390" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B390" s="6">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="B390" s="5">
+        <v>64</v>
       </c>
       <c r="C390" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A391" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B391" s="6">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="B391" s="5">
+        <v>62</v>
       </c>
       <c r="C391" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A392" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B392" s="6">
-        <v>40</v>
+      <c r="A392" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B392" s="5">
+        <v>79</v>
       </c>
       <c r="C392" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A393" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B393" s="6">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="B393" s="5">
+        <v>68</v>
       </c>
       <c r="C393" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A394" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B394" s="6">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B394" s="5">
+        <v>77</v>
       </c>
       <c r="C394" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A395" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B395" s="6">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B395" s="5">
+        <v>68</v>
       </c>
       <c r="C395" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A396" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B396" s="6">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="B396" s="5">
+        <v>69</v>
       </c>
       <c r="C396" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A397" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B397" s="6">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="B397" s="5">
+        <v>104</v>
       </c>
       <c r="C397" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A398" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B398" s="6">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B398" s="5">
+        <v>71</v>
       </c>
       <c r="C398" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A399" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B399" s="6">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="B399" s="5">
+        <v>83</v>
       </c>
       <c r="C399" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A400" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B400" s="6">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="B400" s="5">
+        <v>77</v>
       </c>
       <c r="C400" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A401" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B401" s="6">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="B401" s="5">
+        <v>48</v>
       </c>
       <c r="C401" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A402" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B402" s="6">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="B402" s="5">
+        <v>50</v>
       </c>
       <c r="C402" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A403" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B403" s="5">
         <v>53</v>
       </c>
-      <c r="B403" s="6">
-        <v>37</v>
-      </c>
       <c r="C403" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A404" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B404" s="6">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="B404" s="5">
+        <v>53</v>
       </c>
       <c r="C404" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A405" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B405" s="6">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="B405" s="5">
+        <v>82</v>
       </c>
       <c r="C405" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A406" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B406" s="6">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="B406" s="5">
+        <v>88</v>
       </c>
       <c r="C406" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A407" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B407" s="6">
-        <v>24</v>
+        <v>51</v>
+      </c>
+      <c r="B407" s="5">
+        <v>68</v>
       </c>
       <c r="C407" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A408" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B408" s="6">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="B408" s="5">
+        <v>85</v>
       </c>
       <c r="C408" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A409" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B409" s="6">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="B409" s="5">
+        <v>94</v>
       </c>
       <c r="C409" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A410" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B410" s="6">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B410" s="5">
+        <v>68</v>
       </c>
       <c r="C410" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A411" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B411" s="6">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="B411" s="5">
+        <v>74</v>
       </c>
       <c r="C411" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A412" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B412" s="6">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B412" s="5">
+        <v>92</v>
       </c>
       <c r="C412" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A413" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B413" s="6">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="B413" s="5">
+        <v>74</v>
       </c>
       <c r="C413" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A414" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B414" s="6">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="B414" s="5">
+        <v>62</v>
       </c>
       <c r="C414" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A415" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B415" s="6">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B415" s="5">
+        <v>86</v>
       </c>
       <c r="C415" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A416" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B416" s="6">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B416" s="5">
+        <v>93</v>
       </c>
       <c r="C416" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A417" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B417" s="6">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="B417" s="5">
+        <v>111</v>
       </c>
       <c r="C417" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A418" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B418" s="6">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="B418" s="5">
+        <v>74</v>
       </c>
       <c r="C418" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A419" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B419" s="6">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="B419" s="5">
+        <v>64</v>
       </c>
       <c r="C419" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A420" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B420" s="6">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="B420" s="5">
+        <v>98</v>
       </c>
       <c r="C420" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A421" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B421" s="6">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="B421" s="5">
+        <v>121</v>
       </c>
       <c r="C421" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A422" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B422" s="6">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B422" s="5">
+        <v>68</v>
       </c>
       <c r="C422" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A423" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B423" s="6">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="B423" s="5">
+        <v>99</v>
       </c>
       <c r="C423" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A424" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B424" s="5">
+        <v>103</v>
+      </c>
+      <c r="C424" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A425" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B425">
+        <v>99</v>
+      </c>
+      <c r="C425" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A426" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B426">
+        <v>90</v>
+      </c>
+      <c r="C426" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A427" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B427">
+        <v>54</v>
+      </c>
+      <c r="C427" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A428" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B428">
+        <v>79</v>
+      </c>
+      <c r="C428" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A429" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B429">
+        <v>93</v>
+      </c>
+      <c r="C429" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A430" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B430">
+        <v>85</v>
+      </c>
+      <c r="C430" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A431" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B424" s="6">
-        <v>26</v>
-      </c>
-      <c r="C424" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A425" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B425" s="6">
-        <v>13</v>
-      </c>
-      <c r="C425" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A426" s="3" t="s">
+      <c r="B431">
+        <v>94</v>
+      </c>
+      <c r="C431" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A432" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B426" s="6">
-        <v>11</v>
-      </c>
-      <c r="C426" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A427" s="3" t="s">
+      <c r="B432">
+        <v>95</v>
+      </c>
+      <c r="C432" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A433" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B427" s="6">
-        <v>28</v>
-      </c>
-      <c r="C427" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A428" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B428" s="6">
-        <v>30</v>
-      </c>
-      <c r="C428" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A429" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B429" s="6">
-        <v>53</v>
-      </c>
-      <c r="C429" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A430" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B430" s="6">
-        <v>28</v>
-      </c>
-      <c r="C430" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A431" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B431">
-        <v>18</v>
-      </c>
-      <c r="C431" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A432" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B432">
-        <v>20</v>
-      </c>
-      <c r="C432" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A433" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="B433">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C433" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A434" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B434" s="6">
-        <v>66</v>
+      <c r="A434" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B434" s="5">
+        <v>44</v>
       </c>
       <c r="C434" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A435" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B435" s="6">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="B435" s="5">
+        <v>55</v>
       </c>
       <c r="C435" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A436" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B436" s="6">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="B436" s="5">
+        <v>42</v>
       </c>
       <c r="C436" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A437" s="5" t="s">
+      <c r="A437" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B437" s="6">
-        <v>45</v>
+      <c r="B437" s="5">
+        <v>36</v>
       </c>
       <c r="C437" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A438" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B438" s="6">
-        <v>58</v>
+      <c r="B438" s="5">
+        <v>27</v>
       </c>
       <c r="C438" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A439" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B439" s="6">
-        <v>44</v>
+      <c r="B439" s="5">
+        <v>39</v>
       </c>
       <c r="C439" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A440" s="5" t="s">
+      <c r="A440" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B440" s="6">
-        <v>59</v>
+      <c r="B440" s="5">
+        <v>53</v>
       </c>
       <c r="C440" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A441" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B441" s="6">
-        <v>45</v>
+      <c r="B441" s="5">
+        <v>38</v>
       </c>
       <c r="C441" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A442" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B442" s="6">
-        <v>34</v>
+      <c r="B442" s="5">
+        <v>44</v>
       </c>
       <c r="C442" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A443" s="2" t="s">
+      <c r="A443" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B443" s="6">
-        <v>48</v>
+      <c r="B443" s="5">
+        <v>40</v>
       </c>
       <c r="C443" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A444" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B444" s="6">
-        <v>37</v>
+      <c r="B444" s="5">
+        <v>27</v>
       </c>
       <c r="C444" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A445" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B445" s="6">
-        <v>37</v>
+      <c r="B445" s="5">
+        <v>43</v>
       </c>
       <c r="C445" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A446" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B446" s="6">
-        <v>89</v>
+      <c r="A446" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B446" s="5">
+        <v>21</v>
       </c>
       <c r="C446" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A447" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B447" s="6">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="B447" s="5">
+        <v>18</v>
       </c>
       <c r="C447" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A448" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B448" s="6">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="B448" s="5">
+        <v>42</v>
       </c>
       <c r="C448" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A449" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B449" s="6">
-        <v>82</v>
+      <c r="B449" s="5">
+        <v>11</v>
       </c>
       <c r="C449" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A450" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B450" s="6">
-        <v>64</v>
+      <c r="B450" s="5">
+        <v>16</v>
       </c>
       <c r="C450" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A451" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B451" s="6">
-        <v>62</v>
+      <c r="B451" s="5">
+        <v>20</v>
       </c>
       <c r="C451" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A452" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B452" s="6">
-        <v>79</v>
+      <c r="B452" s="5">
+        <v>25</v>
       </c>
       <c r="C452" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A453" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B453" s="6">
-        <v>68</v>
+      <c r="B453" s="5">
+        <v>42</v>
       </c>
       <c r="C453" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A454" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B454" s="6">
-        <v>77</v>
+      <c r="B454" s="5">
+        <v>30</v>
       </c>
       <c r="C454" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A455" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B455" s="6">
-        <v>68</v>
+      <c r="B455" s="5">
+        <v>27</v>
       </c>
       <c r="C455" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A456" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B456" s="6">
-        <v>69</v>
+      <c r="B456" s="5">
+        <v>18</v>
       </c>
       <c r="C456" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A457" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B457" s="6">
-        <v>104</v>
+      <c r="B457" s="5">
+        <v>22</v>
       </c>
       <c r="C457" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A458" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B458" s="6">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="B458" s="5">
+        <v>10</v>
       </c>
       <c r="C458" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A459" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B459" s="6">
-        <v>83</v>
+        <v>15</v>
+      </c>
+      <c r="B459" s="5">
+        <v>12</v>
       </c>
       <c r="C459" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A460" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B460" s="6">
-        <v>77</v>
+        <v>16</v>
+      </c>
+      <c r="B460" s="5">
+        <v>16</v>
       </c>
       <c r="C460" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A461" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B461" s="6">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="B461" s="5">
+        <v>13</v>
       </c>
       <c r="C461" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A462" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B462" s="6">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="B462" s="5">
+        <v>11</v>
       </c>
       <c r="C462" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A463" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B463" s="6">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="B463" s="5">
+        <v>16</v>
       </c>
       <c r="C463" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A464" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B464" s="6">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="B464" s="5">
+        <v>13</v>
       </c>
       <c r="C464" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A465" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B465" s="6">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="B465" s="5">
+        <v>19</v>
       </c>
       <c r="C465" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A466" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B466" s="6">
-        <v>88</v>
+        <v>54</v>
+      </c>
+      <c r="B466" s="5">
+        <v>9</v>
       </c>
       <c r="C466" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A467" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B467" s="6">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="B467" s="5">
+        <v>7</v>
       </c>
       <c r="C467" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A468" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B468" s="6">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B468" s="5">
+        <v>12</v>
       </c>
       <c r="C468" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A469" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B469" s="6">
-        <v>94</v>
+        <v>56</v>
+      </c>
+      <c r="B469" s="5">
+        <v>15</v>
       </c>
       <c r="C469" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A470" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B470" s="6">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="B470" s="5">
+        <v>18</v>
       </c>
       <c r="C470" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A471" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B471" s="6">
-        <v>74</v>
+        <v>31</v>
+      </c>
+      <c r="B471" s="5">
+        <v>26</v>
       </c>
       <c r="C471" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A472" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B472" s="5">
+        <v>25</v>
+      </c>
+      <c r="C472" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A473" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B473">
+        <v>23</v>
+      </c>
+      <c r="C473" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A474" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B474">
         <v>16</v>
       </c>
-      <c r="B472" s="6">
+      <c r="C474" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A475" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B475">
+        <v>15</v>
+      </c>
+      <c r="C475" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A476" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B476">
+        <v>26</v>
+      </c>
+      <c r="C476" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A477" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B477">
+        <v>16</v>
+      </c>
+      <c r="C477" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A478" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B478">
+        <v>24</v>
+      </c>
+      <c r="C478" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A479" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B479">
+        <v>18</v>
+      </c>
+      <c r="C479" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A480" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B480">
+        <v>17</v>
+      </c>
+      <c r="C480" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A481" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B481">
+        <v>21</v>
+      </c>
+      <c r="C481" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A482" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B482" s="5">
+        <v>102</v>
+      </c>
+      <c r="C482" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A483" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B483" s="5">
+        <v>101</v>
+      </c>
+      <c r="C483" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A484" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B484" s="5">
+        <v>95</v>
+      </c>
+      <c r="C484" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A485" t="s">
+        <v>36</v>
+      </c>
+      <c r="B485" s="5">
+        <v>117</v>
+      </c>
+      <c r="C485" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A486" t="s">
+        <v>37</v>
+      </c>
+      <c r="B486" s="5">
+        <v>52</v>
+      </c>
+      <c r="C486" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A487" t="s">
+        <v>38</v>
+      </c>
+      <c r="B487" s="5">
+        <v>76</v>
+      </c>
+      <c r="C487" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A488" t="s">
+        <v>39</v>
+      </c>
+      <c r="B488" s="5">
+        <v>132</v>
+      </c>
+      <c r="C488" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A489" t="s">
+        <v>40</v>
+      </c>
+      <c r="B489" s="5">
+        <v>108</v>
+      </c>
+      <c r="C489" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A490" t="s">
+        <v>41</v>
+      </c>
+      <c r="B490" s="5">
+        <v>169</v>
+      </c>
+      <c r="C490" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A491" t="s">
+        <v>42</v>
+      </c>
+      <c r="B491" s="5">
+        <v>112</v>
+      </c>
+      <c r="C491" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A492" t="s">
+        <v>43</v>
+      </c>
+      <c r="B492" s="5">
+        <v>133</v>
+      </c>
+      <c r="C492" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A493" t="s">
+        <v>44</v>
+      </c>
+      <c r="B493" s="5">
+        <v>129</v>
+      </c>
+      <c r="C493" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A494" t="s">
+        <v>26</v>
+      </c>
+      <c r="B494" s="5">
+        <v>111</v>
+      </c>
+      <c r="C494" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A495" t="s">
+        <v>30</v>
+      </c>
+      <c r="B495" s="5">
+        <v>111</v>
+      </c>
+      <c r="C495" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A496" t="s">
+        <v>34</v>
+      </c>
+      <c r="B496" s="5">
+        <v>114</v>
+      </c>
+      <c r="C496" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A497" t="s">
+        <v>45</v>
+      </c>
+      <c r="B497" s="5">
+        <v>89</v>
+      </c>
+      <c r="C497" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A498" t="s">
+        <v>46</v>
+      </c>
+      <c r="B498" s="5">
+        <v>72</v>
+      </c>
+      <c r="C498" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A499" t="s">
+        <v>47</v>
+      </c>
+      <c r="B499" s="5">
+        <v>93</v>
+      </c>
+      <c r="C499" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A500" t="s">
+        <v>48</v>
+      </c>
+      <c r="B500" s="5">
+        <v>104</v>
+      </c>
+      <c r="C500" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A501" t="s">
+        <v>49</v>
+      </c>
+      <c r="B501" s="5">
+        <v>103</v>
+      </c>
+      <c r="C501" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A502" t="s">
+        <v>50</v>
+      </c>
+      <c r="B502" s="5">
+        <v>126</v>
+      </c>
+      <c r="C502" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A503" t="s">
+        <v>51</v>
+      </c>
+      <c r="B503" s="5">
+        <v>65</v>
+      </c>
+      <c r="C503" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A504" t="s">
+        <v>52</v>
+      </c>
+      <c r="B504" s="5">
+        <v>96</v>
+      </c>
+      <c r="C504" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A505" t="s">
+        <v>53</v>
+      </c>
+      <c r="B505" s="5">
+        <v>101</v>
+      </c>
+      <c r="C505" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A506" t="s">
+        <v>14</v>
+      </c>
+      <c r="B506" s="5">
+        <v>79</v>
+      </c>
+      <c r="C506" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A507" t="s">
+        <v>15</v>
+      </c>
+      <c r="B507" s="5">
+        <v>69</v>
+      </c>
+      <c r="C507" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A508" t="s">
+        <v>16</v>
+      </c>
+      <c r="B508" s="5">
+        <v>74</v>
+      </c>
+      <c r="C508" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A509" t="s">
+        <v>17</v>
+      </c>
+      <c r="B509" s="5">
+        <v>64</v>
+      </c>
+      <c r="C509" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A510" t="s">
+        <v>18</v>
+      </c>
+      <c r="B510" s="5">
+        <v>87</v>
+      </c>
+      <c r="C510" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A511" t="s">
+        <v>19</v>
+      </c>
+      <c r="B511" s="5">
         <v>92</v>
       </c>
-      <c r="C472" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A473" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B473" s="6">
-        <v>74</v>
-      </c>
-      <c r="C473" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A474" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B474" s="6">
+      <c r="C511" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A512" t="s">
+        <v>20</v>
+      </c>
+      <c r="B512" s="5">
+        <v>88</v>
+      </c>
+      <c r="C512" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A513" t="s">
+        <v>21</v>
+      </c>
+      <c r="B513" s="5">
+        <v>103</v>
+      </c>
+      <c r="C513" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A514" t="s">
+        <v>54</v>
+      </c>
+      <c r="B514" s="5">
+        <v>61</v>
+      </c>
+      <c r="C514" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A515" t="s">
+        <v>23</v>
+      </c>
+      <c r="B515" s="5">
+        <v>60</v>
+      </c>
+      <c r="C515" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A516" t="s">
+        <v>55</v>
+      </c>
+      <c r="B516" s="5">
+        <v>94</v>
+      </c>
+      <c r="C516" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A517" t="s">
+        <v>56</v>
+      </c>
+      <c r="B517" s="5">
+        <v>105</v>
+      </c>
+      <c r="C517" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A518" t="s">
+        <v>27</v>
+      </c>
+      <c r="B518" s="5">
+        <v>96</v>
+      </c>
+      <c r="C518" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A519" t="s">
+        <v>31</v>
+      </c>
+      <c r="B519" s="5">
+        <v>116</v>
+      </c>
+      <c r="C519" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A520" t="s">
+        <v>35</v>
+      </c>
+      <c r="B520" s="5">
+        <v>89</v>
+      </c>
+      <c r="C520" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A521" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B521">
+        <v>71</v>
+      </c>
+      <c r="C521" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A522" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B522">
+        <v>106</v>
+      </c>
+      <c r="C522" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A523" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B523">
+        <v>54</v>
+      </c>
+      <c r="C523" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A524" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B524">
+        <v>91</v>
+      </c>
+      <c r="C524" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A525" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B525">
+        <v>89</v>
+      </c>
+      <c r="C525" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A526" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C474" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A475" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B475" s="6">
-        <v>86</v>
-      </c>
-      <c r="C475" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A476" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B476" s="6">
-        <v>93</v>
-      </c>
-      <c r="C476" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A477" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B477" s="6">
-        <v>111</v>
-      </c>
-      <c r="C477" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A478" s="3" t="s">
+      <c r="B526">
+        <v>69</v>
+      </c>
+      <c r="C526" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A527" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B478" s="6">
-        <v>74</v>
-      </c>
-      <c r="C478" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A479" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B479" s="6">
+      <c r="B527">
+        <v>89</v>
+      </c>
+      <c r="C527" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A528" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C479" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A480" s="3" t="s">
+      <c r="B528">
+        <v>79</v>
+      </c>
+      <c r="C528" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A529" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B529">
         <v>64</v>
       </c>
-      <c r="B480" s="6">
-        <v>98</v>
-      </c>
-      <c r="C480" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A481" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B481" s="6">
-        <v>121</v>
-      </c>
-      <c r="C481" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A482" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B482" s="6">
-        <v>68</v>
-      </c>
-      <c r="C482" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A483" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B483" s="6">
-        <v>99</v>
-      </c>
-      <c r="C483" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A484" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B484" s="6">
-        <v>103</v>
-      </c>
-      <c r="C484" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A485" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B485">
-        <v>99</v>
-      </c>
-      <c r="C485" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A486" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B486">
-        <v>90</v>
-      </c>
-      <c r="C486" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A487" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B487">
-        <v>54</v>
-      </c>
-      <c r="C487" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A488" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B488" s="6">
-        <v>20</v>
-      </c>
-      <c r="C488" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A489" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B489" s="6">
-        <v>4</v>
-      </c>
-      <c r="C489" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A490" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B490" s="6">
-        <v>15</v>
-      </c>
-      <c r="C490" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A491" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B491" s="6">
-        <v>13</v>
-      </c>
-      <c r="C491" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A492" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B492" s="6">
-        <v>16</v>
-      </c>
-      <c r="C492" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A493" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B493" s="6">
-        <v>8</v>
-      </c>
-      <c r="C493" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A494" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B494" s="6">
-        <v>16</v>
-      </c>
-      <c r="C494" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A495" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B495" s="6">
-        <v>15</v>
-      </c>
-      <c r="C495" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A496" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B496" s="6">
-        <v>7</v>
-      </c>
-      <c r="C496" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A497" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B497" s="6">
-        <v>18</v>
-      </c>
-      <c r="C497" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A498" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B498" s="6">
-        <v>16</v>
-      </c>
-      <c r="C498" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A499" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B499" s="6">
-        <v>12</v>
-      </c>
-      <c r="C499" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A500" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B500" s="6">
-        <v>44</v>
-      </c>
-      <c r="C500" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A501" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B501" s="6">
-        <v>55</v>
-      </c>
-      <c r="C501" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A502" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B502" s="6">
-        <v>42</v>
-      </c>
-      <c r="C502" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A503" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B503" s="6">
-        <v>36</v>
-      </c>
-      <c r="C503" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A504" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B504" s="6">
-        <v>27</v>
-      </c>
-      <c r="C504" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A505" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B505" s="6">
-        <v>39</v>
-      </c>
-      <c r="C505" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A506" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B506" s="6">
-        <v>53</v>
-      </c>
-      <c r="C506" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A507" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B507" s="6">
-        <v>38</v>
-      </c>
-      <c r="C507" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A508" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B508" s="6">
-        <v>44</v>
-      </c>
-      <c r="C508" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A509" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B509" s="6">
-        <v>40</v>
-      </c>
-      <c r="C509" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A510" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B510" s="6">
-        <v>27</v>
-      </c>
-      <c r="C510" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A511" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B511" s="6">
-        <v>43</v>
-      </c>
-      <c r="C511" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A512" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B512" s="6">
-        <v>21</v>
-      </c>
-      <c r="C512" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A513" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B513" s="6">
-        <v>18</v>
-      </c>
-      <c r="C513" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A514" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B514" s="6">
-        <v>42</v>
-      </c>
-      <c r="C514" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A515" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B515" s="6">
-        <v>11</v>
-      </c>
-      <c r="C515" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A516" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B516" s="6">
-        <v>16</v>
-      </c>
-      <c r="C516" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A517" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B517" s="6">
-        <v>20</v>
-      </c>
-      <c r="C517" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A518" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B518" s="6">
-        <v>25</v>
-      </c>
-      <c r="C518" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A519" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B519" s="6">
-        <v>42</v>
-      </c>
-      <c r="C519" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A520" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B520" s="6">
-        <v>30</v>
-      </c>
-      <c r="C520" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A521" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B521" s="6">
-        <v>27</v>
-      </c>
-      <c r="C521" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A522" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B522" s="6">
-        <v>18</v>
-      </c>
-      <c r="C522" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A523" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B523" s="6">
-        <v>22</v>
-      </c>
-      <c r="C523" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A524" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B524" s="6">
-        <v>10</v>
-      </c>
-      <c r="C524" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A525" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B525" s="6">
-        <v>12</v>
-      </c>
-      <c r="C525" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A526" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B526" s="6">
-        <v>16</v>
-      </c>
-      <c r="C526" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A527" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B527" s="6">
-        <v>13</v>
-      </c>
-      <c r="C527" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A528" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B528" s="6">
-        <v>11</v>
-      </c>
-      <c r="C528" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A529" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B529" s="6">
-        <v>16</v>
-      </c>
       <c r="C529" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A530" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B530" s="6">
-        <v>13</v>
-      </c>
-      <c r="C530" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A531" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B531" s="6">
-        <v>19</v>
-      </c>
-      <c r="C531" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A532" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B532" s="6">
-        <v>9</v>
-      </c>
-      <c r="C532" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A533" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B533" s="6">
-        <v>7</v>
-      </c>
-      <c r="C533" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A534" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B534" s="6">
-        <v>12</v>
-      </c>
-      <c r="C534" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A535" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B535" s="6">
-        <v>15</v>
-      </c>
-      <c r="C535" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A536" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B536" s="6">
-        <v>18</v>
-      </c>
-      <c r="C536" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A537" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B537" s="6">
-        <v>26</v>
-      </c>
-      <c r="C537" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A538" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B538" s="6">
-        <v>25</v>
-      </c>
-      <c r="C538" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A539" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B539">
-        <v>23</v>
-      </c>
-      <c r="C539" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A540" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B540">
-        <v>16</v>
-      </c>
-      <c r="C540" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A541" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B541">
-        <v>15</v>
-      </c>
-      <c r="C541" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A542" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B542" s="6">
-        <v>50</v>
-      </c>
-      <c r="C542" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A543" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B543" s="6">
-        <v>36</v>
-      </c>
-      <c r="C543" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A544" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B544" s="6">
-        <v>55</v>
-      </c>
-      <c r="C544" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A545" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B545" s="6">
-        <v>57</v>
-      </c>
-      <c r="C545" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A546" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B546" s="6">
-        <v>55</v>
-      </c>
-      <c r="C546" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A547" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B547" s="6">
-        <v>49</v>
-      </c>
-      <c r="C547" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A548" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B548" s="6">
-        <v>62</v>
-      </c>
-      <c r="C548" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A549" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B549" s="6">
-        <v>58</v>
-      </c>
-      <c r="C549" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A550" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B550" s="6">
-        <v>62</v>
-      </c>
-      <c r="C550" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A551" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B551" s="6">
-        <v>69</v>
-      </c>
-      <c r="C551" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A552" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B552" s="6">
-        <v>62</v>
-      </c>
-      <c r="C552" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A553" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B553" s="6">
-        <v>39</v>
-      </c>
-      <c r="C553" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A554" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B554" s="6">
-        <v>102</v>
-      </c>
-      <c r="C554" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A555" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B555" s="6">
-        <v>101</v>
-      </c>
-      <c r="C555" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A556" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B556" s="6">
-        <v>95</v>
-      </c>
-      <c r="C556" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A557" t="s">
-        <v>45</v>
-      </c>
-      <c r="B557" s="6">
-        <v>117</v>
-      </c>
-      <c r="C557" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A558" t="s">
-        <v>46</v>
-      </c>
-      <c r="B558" s="6">
-        <v>52</v>
-      </c>
-      <c r="C558" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A559" t="s">
-        <v>47</v>
-      </c>
-      <c r="B559" s="6">
-        <v>76</v>
-      </c>
-      <c r="C559" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A560" t="s">
-        <v>48</v>
-      </c>
-      <c r="B560" s="6">
-        <v>132</v>
-      </c>
-      <c r="C560" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A561" t="s">
-        <v>49</v>
-      </c>
-      <c r="B561" s="6">
-        <v>108</v>
-      </c>
-      <c r="C561" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A562" t="s">
-        <v>50</v>
-      </c>
-      <c r="B562" s="6">
-        <v>169</v>
-      </c>
-      <c r="C562" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A563" t="s">
-        <v>51</v>
-      </c>
-      <c r="B563" s="6">
-        <v>112</v>
-      </c>
-      <c r="C563" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A564" t="s">
-        <v>52</v>
-      </c>
-      <c r="B564" s="6">
-        <v>133</v>
-      </c>
-      <c r="C564" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A565" t="s">
-        <v>53</v>
-      </c>
-      <c r="B565" s="6">
-        <v>129</v>
-      </c>
-      <c r="C565" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A566" t="s">
-        <v>26</v>
-      </c>
-      <c r="B566" s="6">
-        <v>111</v>
-      </c>
-      <c r="C566" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A567" t="s">
-        <v>30</v>
-      </c>
-      <c r="B567" s="6">
-        <v>111</v>
-      </c>
-      <c r="C567" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A568" t="s">
-        <v>34</v>
-      </c>
-      <c r="B568" s="6">
-        <v>114</v>
-      </c>
-      <c r="C568" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A569" t="s">
-        <v>54</v>
-      </c>
-      <c r="B569" s="6">
-        <v>89</v>
-      </c>
-      <c r="C569" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A570" t="s">
-        <v>55</v>
-      </c>
-      <c r="B570" s="6">
-        <v>72</v>
-      </c>
-      <c r="C570" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A571" t="s">
-        <v>56</v>
-      </c>
-      <c r="B571" s="6">
-        <v>93</v>
-      </c>
-      <c r="C571" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A572" t="s">
-        <v>57</v>
-      </c>
-      <c r="B572" s="6">
-        <v>104</v>
-      </c>
-      <c r="C572" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A573" t="s">
-        <v>58</v>
-      </c>
-      <c r="B573" s="6">
-        <v>103</v>
-      </c>
-      <c r="C573" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A574" t="s">
-        <v>59</v>
-      </c>
-      <c r="B574" s="6">
-        <v>126</v>
-      </c>
-      <c r="C574" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A575" t="s">
-        <v>60</v>
-      </c>
-      <c r="B575" s="6">
-        <v>65</v>
-      </c>
-      <c r="C575" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A576" t="s">
-        <v>61</v>
-      </c>
-      <c r="B576" s="6">
-        <v>96</v>
-      </c>
-      <c r="C576" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A577" t="s">
-        <v>62</v>
-      </c>
-      <c r="B577" s="6">
-        <v>101</v>
-      </c>
-      <c r="C577" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A578" t="s">
-        <v>14</v>
-      </c>
-      <c r="B578" s="6">
-        <v>79</v>
-      </c>
-      <c r="C578" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A579" t="s">
-        <v>15</v>
-      </c>
-      <c r="B579" s="6">
-        <v>69</v>
-      </c>
-      <c r="C579" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A580" t="s">
-        <v>16</v>
-      </c>
-      <c r="B580" s="6">
-        <v>74</v>
-      </c>
-      <c r="C580" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A581" t="s">
-        <v>17</v>
-      </c>
-      <c r="B581" s="6">
-        <v>64</v>
-      </c>
-      <c r="C581" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A582" t="s">
-        <v>18</v>
-      </c>
-      <c r="B582" s="6">
-        <v>87</v>
-      </c>
-      <c r="C582" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A583" t="s">
-        <v>19</v>
-      </c>
-      <c r="B583" s="6">
-        <v>92</v>
-      </c>
-      <c r="C583" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A584" t="s">
-        <v>20</v>
-      </c>
-      <c r="B584" s="6">
-        <v>88</v>
-      </c>
-      <c r="C584" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A585" t="s">
-        <v>21</v>
-      </c>
-      <c r="B585" s="6">
-        <v>103</v>
-      </c>
-      <c r="C585" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A586" t="s">
-        <v>63</v>
-      </c>
-      <c r="B586" s="6">
-        <v>61</v>
-      </c>
-      <c r="C586" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A587" t="s">
-        <v>23</v>
-      </c>
-      <c r="B587" s="6">
-        <v>60</v>
-      </c>
-      <c r="C587" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A588" t="s">
-        <v>64</v>
-      </c>
-      <c r="B588" s="6">
-        <v>94</v>
-      </c>
-      <c r="C588" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A589" t="s">
-        <v>65</v>
-      </c>
-      <c r="B589" s="6">
-        <v>105</v>
-      </c>
-      <c r="C589" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A590" t="s">
-        <v>27</v>
-      </c>
-      <c r="B590" s="6">
-        <v>96</v>
-      </c>
-      <c r="C590" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A591" t="s">
-        <v>31</v>
-      </c>
-      <c r="B591" s="6">
-        <v>116</v>
-      </c>
-      <c r="C591" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A592" t="s">
-        <v>35</v>
-      </c>
-      <c r="B592" s="6">
-        <v>89</v>
-      </c>
-      <c r="C592" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A593" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B593">
-        <v>71</v>
-      </c>
-      <c r="C593" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A594" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B594">
-        <v>106</v>
-      </c>
-      <c r="C594" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A595" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B595">
-        <v>54</v>
-      </c>
-      <c r="C595" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/Dec 2023 MHDR/perinatal deaths by province_monthly.xlsx
+++ b/data/Dec 2023 MHDR/perinatal deaths by province_monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C721C7B-A85F-4664-8A29-4D71F0797417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F2ECAF-0FB4-4C61-BB54-DE601354B241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
   </bookViews>

--- a/data/Dec 2023 MHDR/perinatal deaths by province_monthly.xlsx
+++ b/data/Dec 2023 MHDR/perinatal deaths by province_monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F2ECAF-0FB4-4C61-BB54-DE601354B241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC171A36-CE51-4226-B54D-8177B3D7D6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -307,11 +307,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,7 +1076,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B41">
@@ -1091,7 +1087,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B42">
@@ -1102,7 +1098,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B43">
@@ -1113,7 +1109,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B44">
@@ -1124,7 +1120,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B45">
@@ -1135,7 +1131,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B46">
@@ -1146,7 +1142,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B47">
@@ -1157,7 +1153,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B48">
@@ -1168,7 +1164,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B49">
@@ -1608,7 +1604,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B89">
@@ -1619,7 +1615,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B90">
@@ -1630,7 +1626,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B91">
@@ -1641,7 +1637,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B92">
@@ -1652,7 +1648,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B93">
@@ -1663,7 +1659,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B94">
@@ -1674,7 +1670,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B95">
@@ -1685,7 +1681,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B96">
@@ -1696,7 +1692,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B97">
@@ -1707,7 +1703,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B98" s="5">
@@ -2136,7 +2132,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B137">
@@ -2147,7 +2143,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B138">
@@ -2158,7 +2154,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B139">
@@ -2169,7 +2165,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B140">
@@ -2180,7 +2176,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B141">
@@ -2191,7 +2187,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B142">
@@ -2202,7 +2198,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B143">
@@ -2213,7 +2209,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B144">
@@ -2224,7 +2220,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B145">
@@ -2235,7 +2231,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B146">
@@ -2664,7 +2660,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B185">
@@ -2675,7 +2671,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B186">
@@ -2686,7 +2682,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B187">
@@ -2697,7 +2693,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B188">
@@ -2708,7 +2704,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B189">
@@ -2719,7 +2715,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B190">
@@ -2730,7 +2726,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B191">
@@ -2741,7 +2737,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B192">
@@ -2752,7 +2748,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B193">
@@ -2763,7 +2759,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B194">
@@ -3192,7 +3188,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B233">
@@ -3203,7 +3199,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B234">
@@ -3214,7 +3210,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B235">
@@ -3225,7 +3221,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A236" s="7" t="s">
+      <c r="A236" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B236">
@@ -3236,7 +3232,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B237">
@@ -3247,7 +3243,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A238" s="6" t="s">
+      <c r="A238" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B238">
@@ -3258,7 +3254,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B239">
@@ -3269,7 +3265,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A240" s="6" t="s">
+      <c r="A240" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B240">
@@ -3280,7 +3276,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A241" s="6" t="s">
+      <c r="A241" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B241">
@@ -3720,7 +3716,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A281" s="6" t="s">
+      <c r="A281" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B281">
@@ -3731,7 +3727,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A282" s="6" t="s">
+      <c r="A282" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B282">
@@ -3742,7 +3738,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A283" s="6" t="s">
+      <c r="A283" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B283">
@@ -3753,7 +3749,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A284" s="7" t="s">
+      <c r="A284" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B284">
@@ -3764,7 +3760,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B285">
@@ -3775,7 +3771,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A286" s="6" t="s">
+      <c r="A286" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B286">
@@ -3786,7 +3782,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A287" s="8" t="s">
+      <c r="A287" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B287">
@@ -3797,7 +3793,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A288" s="6" t="s">
+      <c r="A288" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B288">
@@ -3808,7 +3804,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A289" s="6" t="s">
+      <c r="A289" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B289">
@@ -3819,7 +3815,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A290" s="8" t="s">
+      <c r="A290" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B290" s="5">
@@ -4248,7 +4244,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A329" s="6" t="s">
+      <c r="A329" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B329">
@@ -4259,7 +4255,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A330" s="6" t="s">
+      <c r="A330" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B330">
@@ -4270,7 +4266,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A331" s="6" t="s">
+      <c r="A331" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B331">
@@ -4281,7 +4277,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A332" s="7" t="s">
+      <c r="A332" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B332">
@@ -4292,7 +4288,7 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A333" s="6" t="s">
+      <c r="A333" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B333">
@@ -4303,7 +4299,7 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A334" s="6" t="s">
+      <c r="A334" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B334">
@@ -4314,7 +4310,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A335" s="8" t="s">
+      <c r="A335" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B335">
@@ -4325,7 +4321,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A336" s="6" t="s">
+      <c r="A336" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B336">
@@ -4336,7 +4332,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A337" s="6" t="s">
+      <c r="A337" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B337">
@@ -4776,7 +4772,7 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A377" s="6" t="s">
+      <c r="A377" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B377">
@@ -4787,7 +4783,7 @@
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A378" s="6" t="s">
+      <c r="A378" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B378">
@@ -4798,7 +4794,7 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A379" s="6" t="s">
+      <c r="A379" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B379">
@@ -4809,7 +4805,7 @@
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A380" s="7" t="s">
+      <c r="A380" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B380">
@@ -4820,7 +4816,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A381" s="6" t="s">
+      <c r="A381" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B381">
@@ -4831,7 +4827,7 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A382" s="6" t="s">
+      <c r="A382" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B382">
@@ -4842,7 +4838,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A383" s="8" t="s">
+      <c r="A383" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B383">
@@ -4853,7 +4849,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A384" s="6" t="s">
+      <c r="A384" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B384">
@@ -4864,7 +4860,7 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A385" s="6" t="s">
+      <c r="A385" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B385">
@@ -4875,7 +4871,7 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A386" s="8" t="s">
+      <c r="A386" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B386" s="5">
@@ -5304,7 +5300,7 @@
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A425" s="6" t="s">
+      <c r="A425" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B425">
@@ -5315,7 +5311,7 @@
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A426" s="6" t="s">
+      <c r="A426" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B426">
@@ -5326,7 +5322,7 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A427" s="6" t="s">
+      <c r="A427" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B427">
@@ -5337,7 +5333,7 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A428" s="7" t="s">
+      <c r="A428" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B428">
@@ -5348,7 +5344,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A429" s="6" t="s">
+      <c r="A429" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B429">
@@ -5359,7 +5355,7 @@
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A430" s="6" t="s">
+      <c r="A430" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B430">
@@ -5370,7 +5366,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A431" s="8" t="s">
+      <c r="A431" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B431">
@@ -5381,7 +5377,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A432" s="6" t="s">
+      <c r="A432" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B432">
@@ -5392,7 +5388,7 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A433" s="6" t="s">
+      <c r="A433" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B433">
@@ -5832,7 +5828,7 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A473" s="6" t="s">
+      <c r="A473" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B473">
@@ -5843,7 +5839,7 @@
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A474" s="6" t="s">
+      <c r="A474" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B474">
@@ -5854,7 +5850,7 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A475" s="6" t="s">
+      <c r="A475" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B475">
@@ -5865,7 +5861,7 @@
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A476" s="7" t="s">
+      <c r="A476" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B476">
@@ -5876,7 +5872,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A477" s="6" t="s">
+      <c r="A477" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B477">
@@ -5887,7 +5883,7 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A478" s="6" t="s">
+      <c r="A478" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B478">
@@ -5898,7 +5894,7 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A479" s="8" t="s">
+      <c r="A479" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B479">
@@ -5909,7 +5905,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A480" s="6" t="s">
+      <c r="A480" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B480">
@@ -5920,7 +5916,7 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A481" s="6" t="s">
+      <c r="A481" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B481">
@@ -5931,7 +5927,7 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A482" s="8" t="s">
+      <c r="A482" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B482" s="5">
@@ -5942,7 +5938,7 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A483" s="6" t="s">
+      <c r="A483" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B483" s="5">
@@ -5953,7 +5949,7 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A484" s="6" t="s">
+      <c r="A484" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B484" s="5">
@@ -6360,7 +6356,7 @@
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A521" s="6" t="s">
+      <c r="A521" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B521">
@@ -6371,7 +6367,7 @@
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A522" s="6" t="s">
+      <c r="A522" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B522">
@@ -6382,7 +6378,7 @@
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A523" s="6" t="s">
+      <c r="A523" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B523">
@@ -6393,7 +6389,7 @@
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A524" s="7" t="s">
+      <c r="A524" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B524">
@@ -6404,7 +6400,7 @@
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A525" s="6" t="s">
+      <c r="A525" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B525">
@@ -6415,7 +6411,7 @@
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A526" s="6" t="s">
+      <c r="A526" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B526">
@@ -6426,7 +6422,7 @@
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A527" s="8" t="s">
+      <c r="A527" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B527">
@@ -6437,7 +6433,7 @@
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A528" s="6" t="s">
+      <c r="A528" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B528">
@@ -6448,7 +6444,7 @@
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A529" s="6" t="s">
+      <c r="A529" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B529">
